--- a/src/test/resources/input0.xlsx
+++ b/src/test/resources/input0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>时间</t>
   </si>
@@ -87,7 +87,10 @@
     <t>进行市场调研</t>
   </si>
   <si>
-    <t>事情2</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>年龄</t>
   </si>
   <si>
     <t>成都</t>
@@ -1175,7 +1178,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D2:D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1188,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1202,16 +1205,16 @@
         <v>45058</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1219,16 +1222,16 @@
         <v>45034</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1236,16 +1239,16 @@
         <v>45007</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1253,16 +1256,16 @@
         <v>44971</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D5" s="2">
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1270,16 +1273,16 @@
         <v>44927</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
